--- a/Gestion de projet/risque.xlsx
+++ b/Gestion de projet/risque.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33630\Desktop\ProjetCyber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12C35AB-3AD7-44EC-8271-249F49417EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{C12C35AB-3AD7-44EC-8271-249F49417EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24E8E271-F71F-494B-96CA-3175C7F91056}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{1461C869-3041-473D-BCBC-FBF040CAF826}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" firstSheet="2" activeTab="2" xr2:uid="{1461C869-3041-473D-BCBC-FBF040CAF826}"/>
   </bookViews>
   <sheets>
     <sheet name="Critère d'évaluation " sheetId="1" r:id="rId1"/>
     <sheet name="Impact" sheetId="2" r:id="rId2"/>
     <sheet name="Risque " sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,11 +38,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="57">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
   <si>
+    <t>Critère d'évaluation :</t>
+  </si>
+  <si>
     <t>Gravité</t>
   </si>
   <si>
@@ -58,15 +61,15 @@
     <t>Sévère</t>
   </si>
   <si>
-    <t>Critère d'évaluation :</t>
-  </si>
-  <si>
     <t>N'impacte pas le projet, peut faire perdre quelques minutes</t>
   </si>
   <si>
     <t xml:space="preserve">Fait perdre du temps au projet, mais n'impacte pas le delai du rendu du produit </t>
   </si>
   <si>
+    <t>Impact le délai du rendu du produit (perte de temps de plus d'une journéé)</t>
+  </si>
+  <si>
     <t>Met en péril le projet, nous fait perdre plus d'une semaine de travail</t>
   </si>
   <si>
@@ -97,36 +100,42 @@
     <t xml:space="preserve">Possible </t>
   </si>
   <si>
+    <t>Faible</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Elevé</t>
+  </si>
+  <si>
+    <t>Très Elevé</t>
+  </si>
+  <si>
     <t xml:space="preserve">Probable </t>
   </si>
   <si>
     <t>Presque certain</t>
   </si>
   <si>
-    <t>Faible</t>
-  </si>
-  <si>
-    <t>Moyen</t>
-  </si>
-  <si>
-    <t>Elevé</t>
-  </si>
-  <si>
-    <t>Très Elevé</t>
+    <t>Gestion des risques en Semaine 1</t>
+  </si>
+  <si>
+    <t>Gestion des risques en Semaine 2</t>
   </si>
   <si>
     <t xml:space="preserve">Risque </t>
   </si>
   <si>
+    <t>Impact</t>
+  </si>
+  <si>
     <t>Conséquence</t>
   </si>
   <si>
     <t xml:space="preserve">Remédiation </t>
   </si>
   <si>
-    <t>Impact</t>
-  </si>
-  <si>
     <t xml:space="preserve">Problème de communication </t>
   </si>
   <si>
@@ -154,65 +163,59 @@
     <t xml:space="preserve">Des bugs apparaissent chez le client </t>
   </si>
   <si>
-    <t>Remboursement de la solution pendant la correction des bugs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problème de Budget </t>
+    <t>Débug, &amp; mise à jour de l'outil</t>
+  </si>
+  <si>
+    <t>Risques liés au personnel</t>
+  </si>
+  <si>
+    <t>Membre de l'équipe absent ce qui peut retarder le projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Répartir les tâches en cas de problème </t>
   </si>
   <si>
     <t>Violation de la sécurité ou cyberattaque</t>
   </si>
   <si>
-    <t>Risques liés au personnel</t>
+    <t xml:space="preserve">Sévère </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Données compromise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avec nos mesure de sécurité actuelle, nous sommes bien protégé contre ces menaces </t>
+  </si>
+  <si>
+    <t>Changement du scope</t>
+  </si>
+  <si>
+    <t>Possible retard sur le projet</t>
+  </si>
+  <si>
+    <t>Réfléchir à la plus-value de ce changement de scope.</t>
   </si>
   <si>
     <t>Risques stratégiques</t>
   </si>
   <si>
-    <t>Risques liés à la réputation</t>
-  </si>
-  <si>
-    <t>Publicité négative ou mécontentement des client</t>
-  </si>
-  <si>
-    <t>Offrir un excellent service client, collecter et prendre en compte les commentaires des clients et surveillance des médias et des réseaux sociaux</t>
-  </si>
-  <si>
     <t xml:space="preserve">Évolution des technologies et concurrence intense </t>
   </si>
   <si>
     <t>Recherche et développement continus, adaptation stratégique et analyse concurrentielle régulière</t>
   </si>
   <si>
-    <t xml:space="preserve">Données compromise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avec nos mesure de sécurité actuelle, nous sommes bien protégé contre ces menaces </t>
-  </si>
-  <si>
-    <t>Membre de l'équipe absent ce qui peut retarder le projet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Répartir les tâches en cas de problème </t>
-  </si>
-  <si>
-    <t>Dépassement du budget</t>
-  </si>
-  <si>
-    <t>Suivi régulier des dépenses et du budget</t>
-  </si>
-  <si>
-    <t>Impact le délai du rendu du produit (perte de temps de plus d'une journéé)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sévère </t>
+    <t>Gestion des risques en Semaine 3</t>
+  </si>
+  <si>
+    <t>Gestion des risques en Semaine 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -478,32 +481,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -513,34 +518,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -588,23 +568,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,7 +622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -920,52 +918,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372FF5AF-F36A-49B6-98A7-564A8D3F3E3A}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="158" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="57.95">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -973,47 +971,46 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="45.95" customHeight="1" thickBot="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1032,90 +1029,90 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="19"/>
+    <row r="1" spans="1:6">
+      <c r="A1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>10</v>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="46" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="28" t="s">
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="46"/>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="21" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="32" t="s">
+      <c r="F5" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1130,193 +1127,477 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB991346-D7C5-44CE-B2BD-E4F07C619F69}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="41.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="14" max="14" width="35.5703125" customWidth="1"/>
+    <col min="15" max="15" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="43" t="s">
+    <row r="1" spans="1:15" ht="33" customHeight="1">
+      <c r="A1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="J1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="B2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="F2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="J2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A3" s="34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="B3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="E3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="J3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A4" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="B4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="C4" s="24" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="D4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="E4" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A7" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="43.5" customHeight="1"/>
+    <row r="10" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A10" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="J10" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="C11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F11" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A12" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="43.5" customHeight="1">
+      <c r="A15" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="B15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="43.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="F15" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="43.5" customHeight="1"/>
+    <row r="17" ht="15"/>
+    <row r="19" ht="15"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="J10:O10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
